--- a/data/aio2.xlsx
+++ b/data/aio2.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="yIAkcSK5sMAStPrwD1OMQRwaJC7yQG4FUM6bU6CNXiZON242zTQEpSbdJGMYOAzpoGLagysDwklXKUNYiIxd2A==" workbookSaltValue="X+c7SaZHR3+E1G0QLD+3+g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="aio2" sheetId="2" r:id="rId1"/>
+    <sheet name="aio2" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="466">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>________</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A : ________ do you like?&lt;br&gt;B : I like math.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +683,1184 @@
   </si>
   <si>
     <t>국어는 영어만큼 중요하다.&lt;br&gt;-&gt;Korean is ________ English.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as important as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>important than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more important than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not so important as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as more important as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 단어들을 바르게 배열하여 문장을 완성하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 빈칸에 알맞은 것을 고르시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't want ________ any longer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to stay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 빈칸에 알맞은 전치사를 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)Mike built a white house to live ________.&lt;br&gt;(2)His grandmother has an armchair to sit ________.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)in (2)on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) on (2) on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) in (2) in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) with (2) on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) on (2) with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 문장에서 어법상 어색한 부분을 찾아 바르게 고쳐 문장을 다시 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't mind to work late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't mind working late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't mind work late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't mind to working late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t minding to work late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't mind working to late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 어법상 어색한 문장을 고르시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill expected to pass the exam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane decided to stay at home and rest.</t>
+  </si>
+  <si>
+    <t>David wanted to drink some tea.</t>
+  </si>
+  <si>
+    <t>John enjoys to read novels.</t>
+  </si>
+  <si>
+    <t>I hope to go to America in July.</t>
+  </si>
+  <si>
+    <t>다음 4형식 문장을 3형식 문장으로 바르게 바꿔 쓴 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a robot cleaner, to, decided, buy&lt;br&gt;-&gt;His mom ________.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy to decided a robot cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decided to buy a robot cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to buy a robot cleaner decided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a robot cleaner decided to buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy a robot cleaner decided to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane showed her drawing to him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane showed him her drawing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane showed him her drawing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane showed her drawing him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane showed him to her drawing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane showed her drawing for him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑줄 친 it이 인칭대명사인지 비인칭대명사인지 구분하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) &lt;ins&gt;It&lt;/ins&gt; is an interesting book.&lt;br&gt;(2) &lt;ins&gt;It&lt;/ins&gt; snowed all day long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 인칭대명사 (2) 인칭대명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 인칭대명사 (2)비인칭대명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 비인칭대명사 (2) 인칭대명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 비인칭대명사 (2) 비인칭대명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 빈칸에 공통으로 알맞은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) The boy ________  a kite.&lt;br&gt;(2) My dad _______ me a pretty box.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>had</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>went</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>made</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 두 문장의 뜻이 같도록 할때 빈칸에 알맞은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He sent her a birthday present.&lt;br&gt;= He sent a birthday present ________ her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 우리말에 맞게 주어진 단어들을 바르게 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라는 그녀의 고양이를 미소라고 부른다.&lt;br&gt;(Miso, her cat, calls, Bora)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miso her cat calls Bora.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Her cat calls, Bora Miso.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calls Bora her cat Miso.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bora calls her cat Miso.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bora calls Miso her cat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)If you (keep / will keep) a pet, you will feel happy.&lt;br&gt;(2)Can you lend me the book (after / because) you read it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) keep (2) after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) keep (2) because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) will keep (2) after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) will keep (2) because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈칸에 알맞은 전치사를 보기에서 골라 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;보기&gt; at on in&lt;br&gt;(1)She didn't stay ________ home yesterday.&lt;br&gt;(2)You can see a new bed _______ the room.&lt;br&gt;(3)There is a mirror ________ the wall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) at (2) on (3) in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) on (2) in (3) at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) at (2) on (3) in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) on (2) at (3) in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) at (2) in (3) on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 괄호 친 부분의 쓰임이 잘못된 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you wake me (at) 6:30?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She got married (at) September 7th.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She finished school (in) 1996.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is busy (on) Monday and Friday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Her garden looks wonderful (in) the spring.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 빈칸에 알맞은 말이 순서대로 짝지어진 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Which do you prefer, tea ________ coffee?&lt;br&gt;(2)We were cold ________ hungry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so - or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and - but</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or - or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or - and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and - so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 두 문장의 뜻이 같도록 빈칸에 알맞은 접속사를 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you don't work hard, you will fail.&lt;br&gt;-&gt;_________ you work hard, you will fail.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Though</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말과 일치하도록 빈칸에 알맞은 말을 고르시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 눈이 오고 있어.&lt;br&gt;It is ________ now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 날씨는 어떠니?&lt;br&gt;What's the weather ________ in Seoul?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞지 않은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : How's the weather today?&lt;br&gt;B : ________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's windy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's raining.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's very foggy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's eight o'clock.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's cloudy but warm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 빈칸에 알맞지 않은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What's the weather like today?&lt;br&gt;B : ________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's warm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's very pretty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's cloudy and windy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's snowy and cold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 순서를 바르게 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a) Are you ready to order?&lt;br&gt;(b) I'll have a grape juice, please.&lt;br&gt;© Would you like something to drink?&lt;br&gt;(d) Yes, I am. I'd like to have the fried rice, please.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)-(b)-©-(d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)-(b)-(d)-©</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)-(d)-(b)-©</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)-(d)-©-(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)-©-(d)-(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 순서를 바르게 배열하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓐ Yes. Where should we meet?&lt;br&gt;ⓑ How about at the bus stop?&lt;br&gt;ⓒ Would you like to go on a picnic tomorrow?&lt;br&gt;ⓓ I'd love to. Let's meet at 11 o'clock.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓐ-ⓑ-ⓒ-ⓓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓑ-ⓒ-ⓓ-ⓐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ-ⓓ-ⓐ-ⓑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓐ-ⓓ-ⓑ-ⓒ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ-ⓐ-ⓑ-ⓓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 반칸에 알맞지 않은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I think the movie is boring.&lt;br&gt;B : ________ The story is too long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I agree.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think so, too.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't think so.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't agree more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 두 문장이 같도록 빈칸에 알맞은 말을 한 단어로 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don't agree with you.&lt;br&gt;= I ________ with you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I think she is such a great actress.&lt;br&gt;B : ________ She's the best actress in Korea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That's right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I couldn't agree more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can say that again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중 의도하는 바가 나머지 넷과 다른 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I agree with you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a different idea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't agree with you more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I broke my smartphone.&lt;br&gt;B : ________ too bad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those are</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 밑줄 친 부분과 바꿔 쓸 수 있는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What do you &lt;ins&gt;think&lt;/ins&gt; about his singing?&lt;br&gt;B : His singing is really touching.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : You look sad. What's the problem?&lt;br&gt;ⓐ Why?&lt;br&gt;ⓑ That's too bad.&lt;br&gt;ⓒ My brother is in hospital now.&lt;br&gt;ⓓ He fell off his bicycle yesterday, and his right leg was broken.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ-ⓐ-ⓓ-ⓑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 빈칸에 알맞은 것을 고르시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : ________ do you like my new jeans?&lt;br&gt;B : They look very nice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I think social studies is an interesting subject.&lt;br&gt;________&lt;br&gt;B : I don't think so. It's boring.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How is it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you think?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How much do you like it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do you think so?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you like about it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I lost my new bag.&lt;br&gt;B : ________ worry. You'll find it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doesn't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말과 일치하도록 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 밤에 피아노 치지 않도록 명심해라.&lt;br&gt;→ ________ not to play the piano at night.&lt;br&gt;(2) 너는 아침을 먹어야 해.&lt;br&gt;→ ________ have breakfast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Don't forget (2) Please</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Do (2) Make sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Make sure (2) You should</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) You must (2) I have to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Remember (2) Make sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 밑줄 친 부분과 바꿔 쓸 수 있는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I lost my phone on the subway.&lt;br&gt;B : &lt;ins&gt;Don't worry&lt;/ins&gt; You will find it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No problem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take it easy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can't believe it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're welcome.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm sorry, I can't.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 빈칸에 알맞은 것을 고르시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I have a terrible headache. The doctor said I have to take medicine for two weeks.&lt;br&gt;________</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I broke my leg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What's the matter?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you feel today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How long do you have to take it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't worry. You will get better soon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 밑줄 친 우리말에 맞게 문장을 완성하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : &lt;ins&gt;케이크 사는 것을 잊지 마라.&lt;/ins&gt;&lt;br&gt;B : OK. I won't.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't forget to buy a cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's remember buying a cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don’t forget buying a cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember buying a cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Never forget buying a cake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)너는 어른이 되면 무엇이 되고 싶니?&lt;br&gt;-&gt;What ________ to be when you grow up?&lt;br&gt;(2)나는 수학을 가르치고 싶어.&lt;br&gt;-&gt;I want ________ math.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) do you want (2) to teach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) are you want (2) teach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) are you wanting (2) teaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) you want (2) to teach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) do you want (2) to teaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 흐름상 어색한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What do you want go be when you grow up?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B : I want to be a writer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Why do you want to be a writer?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B : I don't like wrting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How about you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I want to be an astronaut.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 대화의 빈칸에 알맞은 말을 한 문장으로 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : What do you want to be in the future?&lt;br&gt;B : ________.&lt;br&gt;Because I like to make clothes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to be a shoemaker.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to be a fashion designer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to be a model.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to be an architecture.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to be a CEO.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝지어진 대화 중 어색한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you want to be in the future?
+I want to be a fight attendant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can I get to the nearest bus stop?
+Go straight one block.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How long does it take to the City Hall?
+You can go there by taxi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you want to do in the future?
+I want to play the piano.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you tell me the way to the bank?
+I'm sorry, but I'm a stranger here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말과 일치하도록 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)그는 왜 감기에 걸렸었니?&lt;br&gt;-&gt; ________ have a cold?&lt;br&gt;(2)온종일 비가 왔기 때문이다.&lt;br&gt;-&gt; ________ it rained all day long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Why did he (2) Because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Why does he (2) Because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) How does he (2) Why</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) Why did he (2) Although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) How come did he (2) Because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화의 빈칸에 알맞은 말을 쓰시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : ________ to be in the future?&lt;br&gt;B : I want to be a pet stylist.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What do you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How do you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : Would you like ________ some cookies?&lt;br&gt;B : No, ________. I'm not hungry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓐ Because I want to lose some weight.&lt;br&gt;ⓑ I'm taking swimming lessons.&lt;br&gt;ⓒ Why are you doing that?&lt;br&gt;ⓓ What do you do after school?&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ-ⓐ-ⓓ-ⓑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓓ-ⓑ-ⓒ-ⓐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have - I wouldn't.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having - You wouldn't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to have - I'm not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to have - thanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>having - I am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I'm hungry.&lt;br&gt;B : Me, too. I think I could eat a horse!&lt;br&gt;A : Amy, do you like Korean food, don't you?&lt;br&gt;B : Yes, I do.&lt;br&gt;A : ________ some bibimbap?&lt;br&gt;
+ B : It's hot, isn't it?&lt;br&gt;A : Not really. You'll like it. Oh, there's a Korean restaurant.&lt;br&gt;B : Great. Let's go in.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 대화의 내용과 일치하지 않는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 대화의 빈칸에 알맞은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 사람은 배가 고프다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy는 말을 좋아한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy는 한국 음식을 좋아한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비빔밥은 맵지 않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 사람은 한국 음식점에 갈 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do you like</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +1868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,23 +1886,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -782,33 +1954,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,1531 +2276,3104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3">
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="8">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3">
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3">
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="8">
         <v>4</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3">
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="8">
         <v>4</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3">
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" s="1" customFormat="1">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3">
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" s="1" customFormat="1">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3">
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" s="1" customFormat="1">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="3">
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="8">
         <v>4</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:11" s="1" customFormat="1">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="3">
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="8">
         <v>2</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:11" s="1" customFormat="1">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3">
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:11" s="1" customFormat="1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="3">
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="8">
         <v>5</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:11" s="1" customFormat="1">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3">
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="8">
         <v>5</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:11" s="1" customFormat="1">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="3">
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="8">
         <v>5</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:11" s="1" customFormat="1">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="3">
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="8">
         <v>5</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:11" s="1" customFormat="1">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="3">
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="8">
         <v>2</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:11" s="1" customFormat="1">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="3">
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="8">
         <v>3</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:11" s="1" customFormat="1">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="3">
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="8">
         <v>5</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:11" s="1" customFormat="1">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="3">
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="8">
         <v>5</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:11" s="1" customFormat="1">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="3">
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="8">
         <v>3</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:11" s="1" customFormat="1">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="3">
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="8">
         <v>3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:11" s="1" customFormat="1">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="3">
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="8">
         <v>3</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:11" s="1" customFormat="1">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="3">
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="8">
         <v>4</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:11" s="1" customFormat="1">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="3">
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="8">
         <v>3</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:11" s="1" customFormat="1">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="3">
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:11" s="1" customFormat="1">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="3">
+      <c r="E26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="8">
         <v>3</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:11" s="1" customFormat="1">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="3">
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="8">
         <v>5</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="3">
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:11" s="1" customFormat="1">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="3">
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="8">
         <v>2</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:11" s="1" customFormat="1">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="3">
+      <c r="E30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="8">
         <v>1</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:11" s="1" customFormat="1">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="3">
+      <c r="E31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="8">
         <v>4</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:11" s="1" customFormat="1">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="8">
         <v>4</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="8">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="H35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="8">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="K35" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="8">
+        <v>3</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="K37" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A38" s="1">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="8">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="8">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A40" s="1">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="8">
+        <v>5</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="8">
+        <v>5</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A42" s="1">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="8">
+        <v>2</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A43" s="1">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="K43" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1">
+      <c r="A44" s="1">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" s="8">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1">
+      <c r="A45" s="1">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" s="8">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A46" s="1">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" t="s">
-        <v>102</v>
-      </c>
-      <c r="I35" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="C46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A47" s="1">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="8">
         <v>2</v>
       </c>
-      <c r="K35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1">
+      <c r="A48" s="1">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48" s="8">
+        <v>3</v>
+      </c>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A49" s="1">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1">
+      <c r="A50" s="1">
+        <v>19</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J50" s="8">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="54">
+      <c r="A51" s="1">
+        <v>20</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="C51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="8">
+        <v>4</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1">
+      <c r="A52" s="1">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J52" s="8">
+        <v>5</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A53" s="1">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J53" s="8">
+        <v>2</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A54" s="1">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="8">
+        <v>3</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A55" s="1">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J55" s="8">
+        <v>2</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A56" s="1">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J56" s="8">
+        <v>4</v>
+      </c>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A57" s="1">
+        <v>26</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="3">
+      <c r="D57" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="54">
+      <c r="A58" s="1">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J58" s="8">
+        <v>5</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1">
+      <c r="A59" s="1">
+        <v>28</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J59" s="8">
+        <v>2</v>
+      </c>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A60" s="1">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="8">
+        <v>4</v>
+      </c>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A61" s="1">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61" s="8">
+        <v>4</v>
+      </c>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" s="8">
+        <v>2</v>
+      </c>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1">
+      <c r="A64" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J64" s="8">
+        <v>4</v>
+      </c>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A65" s="1">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J65" s="8">
+        <v>3</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="54">
+      <c r="A66" s="1">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J66" s="8">
+        <v>4</v>
+      </c>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="66">
+      <c r="A67" s="1">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J67" s="8">
+        <v>3</v>
+      </c>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A68" s="1">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J68" s="5">
+        <v>4</v>
+      </c>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A69" s="1">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J69" s="5">
+        <v>2</v>
+      </c>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A70" s="1">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J70" s="8">
+        <v>3</v>
+      </c>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" s="1" customFormat="1">
+      <c r="A71" s="1">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J71" s="8">
+        <v>3</v>
+      </c>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J72" s="5">
+        <v>2</v>
+      </c>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A73" s="1">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J73" s="5">
+        <v>2</v>
+      </c>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" ht="54">
+      <c r="A74" s="1">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J74" s="5">
+        <v>5</v>
+      </c>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A75" s="1">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J75" s="5">
+        <v>3</v>
+      </c>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A76" s="1">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J76" s="5">
+        <v>2</v>
+      </c>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A77" s="1">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J77" s="5">
         <v>4</v>
       </c>
-      <c r="K37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" t="s">
-        <v>123</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" ht="66">
+      <c r="A78" s="1">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J78" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" t="s">
-        <v>127</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A79" s="1">
+        <v>18</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J79" s="5">
+        <v>2</v>
+      </c>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A80" s="1">
+        <v>19</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J80" s="5">
+        <v>5</v>
+      </c>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A81" s="1">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J81" s="5">
         <v>1</v>
       </c>
-      <c r="K39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" s="1" customFormat="1" ht="54">
+      <c r="A82" s="1">
+        <v>21</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J82" s="5">
+        <v>4</v>
+      </c>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A83" s="1">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1</v>
+      </c>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A84" s="1">
+        <v>23</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J84" s="5">
+        <v>3</v>
+      </c>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A85" s="1">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J85" s="5">
+        <v>2</v>
+      </c>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="99">
+      <c r="A86" s="1">
+        <v>25</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="J86" s="5">
+        <v>3</v>
+      </c>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" ht="40.5">
+      <c r="A87" s="1">
+        <v>26</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J87" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" t="s">
-        <v>150</v>
-      </c>
-      <c r="I42" t="s">
-        <v>151</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A88" s="1">
+        <v>27</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J88" s="5">
+        <v>4</v>
+      </c>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" s="1" customFormat="1" ht="82.5">
+      <c r="A89" s="1">
+        <v>28</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J89" s="5">
+        <v>3</v>
+      </c>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" ht="115.5">
+      <c r="A90" s="1">
+        <v>29</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J90" s="5">
         <v>2</v>
       </c>
-      <c r="K42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" t="s">
-        <v>162</v>
-      </c>
-      <c r="H44" t="s">
-        <v>163</v>
-      </c>
-      <c r="I44" t="s">
-        <v>164</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="115.5">
+      <c r="A91" s="1">
+        <v>30</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J91" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>22</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>23</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>30</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>16</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>17</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>21</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>22</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>23</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>24</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>25</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>27</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>28</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>29</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>30</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
+      <c r="K91" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2629,11 +5386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aio2.xlsx
+++ b/data/aio2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="yIAkcSK5sMAStPrwD1OMQRwaJC7yQG4FUM6bU6CNXiZON242zTQEpSbdJGMYOAzpoGLagysDwklXKUNYiIxd2A==" workbookSaltValue="X+c7SaZHR3+E1G0QLD+3+g==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jG9+qs7InYtmKtBN73O+OLcUchA8D3JiNVSSQFdbxHcHNENVdzbtFOPI+Z0HcRmZD658kfqTrr/9glCWgHeT3g==" workbookSaltValue="gALoL49bvpGDjHlnsaJH4A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -1815,11 +1815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A : I'm hungry.&lt;br&gt;B : Me, too. I think I could eat a horse!&lt;br&gt;A : Amy, do you like Korean food, don't you?&lt;br&gt;B : Yes, I do.&lt;br&gt;A : ________ some bibimbap?&lt;br&gt;
- B : It's hot, isn't it?&lt;br&gt;A : Not really. You'll like it. Oh, there's a Korean restaurant.&lt;br&gt;B : Great. Let's go in.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아래 대화의 내용과 일치하지 않는 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1861,6 +1856,10 @@
   </si>
   <si>
     <t>Why do you like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A : I'm hungry. / B : Me, too. I think I could eat a horse!&lt;br&gt;A : Amy, do you like Korean food, don't you? / B : Yes, I do.&lt;br&gt;A : ________ some bibimbap? / B : It's hot, isn't it?&lt;br&gt;A : Not really. You'll like it. Oh, there's a Korean restaurant.&lt;br&gt;B : Great. Let's go in.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2276,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2298,7 +2297,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="27">
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="27">
+    <row r="28" spans="1:11" ht="27">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3449,9 +3448,8 @@
       <c r="J33" s="8">
         <v>4</v>
       </c>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -3482,9 +3480,8 @@
       <c r="J34" s="8">
         <v>3</v>
       </c>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -3519,7 +3516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -3550,9 +3547,8 @@
       <c r="J36" s="8">
         <v>3</v>
       </c>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="40.5">
+    </row>
+    <row r="37" spans="1:11" ht="40.5">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -3587,7 +3583,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="27">
+    <row r="38" spans="1:11" ht="27">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -3618,9 +3614,8 @@
       <c r="J38" s="8">
         <v>3</v>
       </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="39" spans="1:11" ht="27">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -3655,7 +3650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="40.5">
+    <row r="40" spans="1:11" ht="40.5">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -3686,9 +3681,8 @@
       <c r="J40" s="8">
         <v>5</v>
       </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -3719,9 +3713,8 @@
       <c r="J41" s="8">
         <v>5</v>
       </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="42" spans="1:11" ht="27">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -3756,7 +3749,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="40.5">
+    <row r="43" spans="1:11" ht="40.5">
       <c r="A43" s="1">
         <v>12</v>
       </c>
@@ -3791,7 +3784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -3822,9 +3815,8 @@
       <c r="J44" s="8">
         <v>2</v>
       </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>14</v>
       </c>
@@ -3855,9 +3847,8 @@
       <c r="J45" s="8">
         <v>4</v>
       </c>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="46" spans="1:11" ht="27">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -3888,9 +3879,8 @@
       <c r="J46" s="5">
         <v>3</v>
       </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="47" spans="1:11" ht="27">
       <c r="A47" s="1">
         <v>16</v>
       </c>
@@ -3921,9 +3911,8 @@
       <c r="J47" s="8">
         <v>2</v>
       </c>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>17</v>
       </c>
@@ -3954,9 +3943,8 @@
       <c r="J48" s="8">
         <v>3</v>
       </c>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="40.5">
+    </row>
+    <row r="49" spans="1:10" ht="40.5">
       <c r="A49" s="1">
         <v>18</v>
       </c>
@@ -3987,9 +3975,8 @@
       <c r="J49" s="8">
         <v>1</v>
       </c>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>19</v>
       </c>
@@ -4020,9 +4007,8 @@
       <c r="J50" s="8">
         <v>5</v>
       </c>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="54">
+    </row>
+    <row r="51" spans="1:10" ht="54">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -4053,9 +4039,8 @@
       <c r="J51" s="8">
         <v>4</v>
       </c>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -4086,9 +4071,8 @@
       <c r="J52" s="8">
         <v>5</v>
       </c>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="53" spans="1:10" ht="27">
       <c r="A53" s="1">
         <v>22</v>
       </c>
@@ -4119,9 +4103,8 @@
       <c r="J53" s="8">
         <v>2</v>
       </c>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="54" spans="1:10" ht="27">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -4152,9 +4135,8 @@
       <c r="J54" s="8">
         <v>3</v>
       </c>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="55" spans="1:10" ht="27">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -4185,9 +4167,8 @@
       <c r="J55" s="8">
         <v>2</v>
       </c>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="56" spans="1:10" ht="27">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -4218,9 +4199,8 @@
       <c r="J56" s="8">
         <v>4</v>
       </c>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="40.5">
+    </row>
+    <row r="57" spans="1:10" ht="40.5">
       <c r="A57" s="1">
         <v>26</v>
       </c>
@@ -4251,9 +4231,8 @@
       <c r="J57" s="8">
         <v>1</v>
       </c>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" ht="54">
+    </row>
+    <row r="58" spans="1:10" ht="54">
       <c r="A58" s="1">
         <v>27</v>
       </c>
@@ -4284,9 +4263,8 @@
       <c r="J58" s="8">
         <v>5</v>
       </c>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>28</v>
       </c>
@@ -4317,9 +4295,8 @@
       <c r="J59" s="8">
         <v>2</v>
       </c>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="60" spans="1:10" ht="27">
       <c r="A60" s="1">
         <v>29</v>
       </c>
@@ -4350,9 +4327,8 @@
       <c r="J60" s="8">
         <v>4</v>
       </c>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="61" spans="1:10" ht="27">
       <c r="A61" s="1">
         <v>30</v>
       </c>
@@ -4383,9 +4359,8 @@
       <c r="J61" s="8">
         <v>4</v>
       </c>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -4416,9 +4391,8 @@
       <c r="J62" s="8">
         <v>2</v>
       </c>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="63" spans="1:10" ht="27">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -4449,9 +4423,8 @@
       <c r="J63" s="8">
         <v>1</v>
       </c>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -4482,9 +4455,8 @@
       <c r="J64" s="8">
         <v>4</v>
       </c>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="65" spans="1:10" ht="27">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -4515,9 +4487,8 @@
       <c r="J65" s="8">
         <v>3</v>
       </c>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="54">
+    </row>
+    <row r="66" spans="1:10" ht="54">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -4548,9 +4519,8 @@
       <c r="J66" s="8">
         <v>4</v>
       </c>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="66">
+    </row>
+    <row r="67" spans="1:10" ht="66">
       <c r="A67" s="1">
         <v>6</v>
       </c>
@@ -4581,9 +4551,8 @@
       <c r="J67" s="8">
         <v>3</v>
       </c>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="68" spans="1:10" ht="27">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -4614,9 +4583,8 @@
       <c r="J68" s="5">
         <v>4</v>
       </c>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="69" spans="1:10" ht="27">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -4647,9 +4615,8 @@
       <c r="J69" s="5">
         <v>2</v>
       </c>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="70" spans="1:10" ht="27">
       <c r="A70" s="1">
         <v>9</v>
       </c>
@@ -4680,9 +4647,8 @@
       <c r="J70" s="8">
         <v>3</v>
       </c>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="1:11" s="1" customFormat="1">
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>10</v>
       </c>
@@ -4713,9 +4679,8 @@
       <c r="J71" s="8">
         <v>3</v>
       </c>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="72" spans="1:10" ht="27">
       <c r="A72" s="1">
         <v>11</v>
       </c>
@@ -4746,9 +4711,8 @@
       <c r="J72" s="5">
         <v>2</v>
       </c>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="73" spans="1:10" ht="27">
       <c r="A73" s="1">
         <v>12</v>
       </c>
@@ -4779,9 +4743,8 @@
       <c r="J73" s="5">
         <v>2</v>
       </c>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" ht="54">
+    </row>
+    <row r="74" spans="1:10" ht="54">
       <c r="A74" s="1">
         <v>13</v>
       </c>
@@ -4812,9 +4775,8 @@
       <c r="J74" s="5">
         <v>5</v>
       </c>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="75" spans="1:10" ht="27">
       <c r="A75" s="1">
         <v>14</v>
       </c>
@@ -4845,9 +4807,8 @@
       <c r="J75" s="5">
         <v>3</v>
       </c>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="40.5">
+    </row>
+    <row r="76" spans="1:10" ht="40.5">
       <c r="A76" s="1">
         <v>15</v>
       </c>
@@ -4878,9 +4839,8 @@
       <c r="J76" s="5">
         <v>2</v>
       </c>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="77" spans="1:10" ht="27">
       <c r="A77" s="1">
         <v>16</v>
       </c>
@@ -4911,9 +4871,8 @@
       <c r="J77" s="5">
         <v>4</v>
       </c>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" ht="66">
+    </row>
+    <row r="78" spans="1:10" ht="66">
       <c r="A78" s="1">
         <v>17</v>
       </c>
@@ -4944,9 +4903,8 @@
       <c r="J78" s="5">
         <v>3</v>
       </c>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="79" spans="1:10" ht="27">
       <c r="A79" s="1">
         <v>18</v>
       </c>
@@ -4977,9 +4935,8 @@
       <c r="J79" s="5">
         <v>2</v>
       </c>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" ht="40.5">
+    </row>
+    <row r="80" spans="1:10" ht="40.5">
       <c r="A80" s="1">
         <v>19</v>
       </c>
@@ -5010,9 +4967,8 @@
       <c r="J80" s="5">
         <v>5</v>
       </c>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="81" spans="1:10" ht="27">
       <c r="A81" s="1">
         <v>20</v>
       </c>
@@ -5043,9 +4999,8 @@
       <c r="J81" s="5">
         <v>1</v>
       </c>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" ht="54">
+    </row>
+    <row r="82" spans="1:10" ht="54">
       <c r="A82" s="1">
         <v>21</v>
       </c>
@@ -5076,9 +5031,8 @@
       <c r="J82" s="5">
         <v>4</v>
       </c>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="83" spans="1:10" ht="27">
       <c r="A83" s="1">
         <v>22</v>
       </c>
@@ -5109,9 +5063,8 @@
       <c r="J83" s="5">
         <v>1</v>
       </c>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="84" spans="1:10" ht="27">
       <c r="A84" s="1">
         <v>23</v>
       </c>
@@ -5142,9 +5095,8 @@
       <c r="J84" s="5">
         <v>3</v>
       </c>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="85" spans="1:10" ht="27">
       <c r="A85" s="1">
         <v>24</v>
       </c>
@@ -5175,9 +5127,8 @@
       <c r="J85" s="5">
         <v>2</v>
       </c>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="99">
+    </row>
+    <row r="86" spans="1:10" ht="99">
       <c r="A86" s="1">
         <v>25</v>
       </c>
@@ -5208,9 +5159,8 @@
       <c r="J86" s="5">
         <v>3</v>
       </c>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" ht="40.5">
+    </row>
+    <row r="87" spans="1:10" ht="40.5">
       <c r="A87" s="1">
         <v>26</v>
       </c>
@@ -5241,9 +5191,8 @@
       <c r="J87" s="5">
         <v>5</v>
       </c>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="88" spans="1:10" ht="27">
       <c r="A88" s="1">
         <v>27</v>
       </c>
@@ -5274,9 +5223,8 @@
       <c r="J88" s="5">
         <v>4</v>
       </c>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" ht="82.5">
+    </row>
+    <row r="89" spans="1:10" ht="82.5">
       <c r="A89" s="1">
         <v>28</v>
       </c>
@@ -5307,9 +5255,8 @@
       <c r="J89" s="5">
         <v>3</v>
       </c>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" ht="115.5">
+    </row>
+    <row r="90" spans="1:10" ht="115.5">
       <c r="A90" s="1">
         <v>29</v>
       </c>
@@ -5317,32 +5264,31 @@
         <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="J90" s="5">
         <v>2</v>
       </c>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" ht="115.5">
+    </row>
+    <row r="91" spans="1:10" ht="115.5">
       <c r="A91" s="1">
         <v>30</v>
       </c>
@@ -5350,30 +5296,29 @@
         <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>440</v>
       </c>
       <c r="H91" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="J91" s="5">
         <v>2</v>
       </c>
-      <c r="K91" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/aio2.xlsx
+++ b/data/aio2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jG9+qs7InYtmKtBN73O+OLcUchA8D3JiNVSSQFdbxHcHNENVdzbtFOPI+Z0HcRmZD658kfqTrr/9glCWgHeT3g==" workbookSaltValue="gALoL49bvpGDjHlnsaJH4A==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="K4EldVrLjNJ7GwFCkw3y4zHnlIMWiyNuAwpCnEDld/V0jw1eLZCX46rnCLqzycJdZqWgx/VeGQ05TCtMJXOepg==" workbookSaltValue="bfOp8uyhMutfxDFzLXnNjg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -2275,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
